--- a/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/15/seed2/result_data_KNN.xlsx
+++ b/data_impute_project/algorithm_result/terrestrial_mammals/combination_3_ABCDF/BD/15/seed2/result_data_KNN.xlsx
@@ -471,7 +471,7 @@
         <v>-10.8</v>
       </c>
       <c r="D2" t="n">
-        <v>-7.184</v>
+        <v>-7.656000000000001</v>
       </c>
       <c r="E2" t="n">
         <v>12.33</v>
@@ -482,7 +482,7 @@
         <v>-21.67</v>
       </c>
       <c r="B3" t="n">
-        <v>6.012</v>
+        <v>6.367</v>
       </c>
       <c r="C3" t="n">
         <v>-9.76</v>
@@ -522,7 +522,7 @@
         <v>-15.14</v>
       </c>
       <c r="D5" t="n">
-        <v>-8.891999999999999</v>
+        <v>-8.245999999999999</v>
       </c>
       <c r="E5" t="n">
         <v>9.970000000000001</v>
@@ -669,7 +669,7 @@
         <v>-20.07</v>
       </c>
       <c r="B14" t="n">
-        <v>7.7</v>
+        <v>6.645999999999999</v>
       </c>
       <c r="C14" t="n">
         <v>-11.89</v>
@@ -788,7 +788,7 @@
         <v>-21.82</v>
       </c>
       <c r="B21" t="n">
-        <v>6.798</v>
+        <v>6.179</v>
       </c>
       <c r="C21" t="n">
         <v>-12.06</v>
@@ -822,7 +822,7 @@
         <v>-20.86</v>
       </c>
       <c r="B23" t="n">
-        <v>6.934</v>
+        <v>6.665000000000001</v>
       </c>
       <c r="C23" t="n">
         <v>-10.59</v>
@@ -856,7 +856,7 @@
         <v>-21.66</v>
       </c>
       <c r="B25" t="n">
-        <v>5.85</v>
+        <v>6.38</v>
       </c>
       <c r="C25" t="n">
         <v>-14.32</v>
